--- a/QA/Tests/Installation/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/Installation/_Test_Suite_Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Title</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>DefaultObjects</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>Suited To Manual</t>
+  </si>
+  <si>
+    <t>Application Installation/Upgrading</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -147,7 +162,74 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FF66FF66"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF66FF66"/>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -534,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -565,7 +647,7 @@
       </c>
       <c r="E1" s="4">
         <f>COUNTA($A:$A) -1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -584,16 +666,16 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
@@ -604,17 +686,43 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -632,7 +740,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -650,34 +758,34 @@
   <sortState ref="A2:E8">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="D1 D4:D1048576">
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="Outdated">
+  <conditionalFormatting sqref="D1 D5:D1048576">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Outdated">
       <formula>NOT(ISERROR(SEARCH("Outdated",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
-    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="containsText" dxfId="15" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="14" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="13" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="12" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="11" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="10" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="9" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" stopIfTrue="1" operator="containsText" text="Suited to Manual">
+    <cfRule type="containsText" dxfId="8" priority="8" stopIfTrue="1" operator="containsText" text="Suited to Manual">
       <formula>NOT(ISERROR(SEARCH("Suited to Manual",D2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QA/Tests/Installation/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/Installation/_Test_Suite_Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Title</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Configuration</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -616,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +658,7 @@
       </c>
       <c r="I1" s="3">
         <f>SUM(G1:G2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,20 +666,20 @@
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF($D:$D,"Automated")+COUNTIF($D:$D,"Finished")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -731,7 +728,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,7 +737,7 @@
       </c>
       <c r="G6" s="9">
         <f>G5/G4</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/QA/Tests/Installation/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/Installation/_Test_Suite_Statistics.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\IntegrationPoints\QA\Tests\Installation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20580" windowHeight="11640"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -57,13 +62,13 @@
     <t>Tabs</t>
   </si>
   <si>
-    <t>Suited To Manual</t>
-  </si>
-  <si>
     <t>Application Installation/Upgrading</t>
   </si>
   <si>
     <t>Configuration</t>
+  </si>
+  <si>
+    <t>Outdated</t>
   </si>
 </sst>
 </file>
@@ -82,12 +87,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -130,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,78 +166,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -319,6 +266,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -367,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,7 +352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,7 +564,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,19 +601,19 @@
       </c>
       <c r="G1" s="7">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3">
         <f>SUM(G1:G2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -708,11 +658,11 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
@@ -756,33 +706,33 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="D1 D5:D1048576">
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Outdated">
+    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="Outdated">
       <formula>NOT(ISERROR(SEARCH("Outdated",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="containsText" dxfId="15" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" stopIfTrue="1" operator="containsText" text="Suited to Manual">
+    <cfRule type="containsText" dxfId="0" priority="8" stopIfTrue="1" operator="containsText" text="Suited to Manual">
       <formula>NOT(ISERROR(SEARCH("Suited to Manual",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
